--- a/data/samples_table.xlsx
+++ b/data/samples_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico/Documents/Lynxtrogression/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico/Documents/Lynxtrogression_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF40D9-B0C7-F942-92C5-E2DC4EBCB7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50FCBC-7E04-B248-9E9E-59A241DFD461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35100" yWindow="620" windowWidth="28040" windowHeight="15320" xr2:uid="{7066C68C-52E2-BA44-82DF-F9A948340F4E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{7066C68C-52E2-BA44-82DF-F9A948340F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F82A8-7FDB-AC4D-A080-1E4E3C5C66CC}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/samples_table.xlsx
+++ b/data/samples_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico/Documents/Lynxtrogression_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50FCBC-7E04-B248-9E9E-59A241DFD461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473E9DC-3407-5F46-A3BE-2A6ED77AB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{7066C68C-52E2-BA44-82DF-F9A948340F4E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{7066C68C-52E2-BA44-82DF-F9A948340F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
     <t>26X</t>
   </si>
   <si>
-    <t>NovaSeqX</t>
+    <t>NovaSeqXPlus</t>
   </si>
 </sst>
 </file>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F82A8-7FDB-AC4D-A080-1E4E3C5C66CC}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A81"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
